--- a/times.xlsx
+++ b/times.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>GPU Based Functions</t>
   </si>
@@ -44,24 +44,24 @@
     <t>HSL %</t>
   </si>
   <si>
+    <t>gpu_hsl2rgb</t>
+  </si>
+  <si>
+    <t>hsl2rgb</t>
+  </si>
+  <si>
+    <t>gpu_histogram</t>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
     <t>Gray %</t>
   </si>
   <si>
     <t>YUV %</t>
   </si>
   <si>
-    <t>gpu_hsl2rgb</t>
-  </si>
-  <si>
-    <t>hsl2rgb</t>
-  </si>
-  <si>
-    <t>gpu_histogram</t>
-  </si>
-  <si>
-    <t>histogram</t>
-  </si>
-  <si>
     <t>gpu_histogram (naive)</t>
   </si>
   <si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>Other time spent naive</t>
+  </si>
+  <si>
+    <t>gpu_histogram (tiled)</t>
+  </si>
+  <si>
+    <t>GPU Time</t>
+  </si>
+  <si>
+    <t>CPU Time</t>
+  </si>
+  <si>
+    <t>gpu_lutcalc</t>
+  </si>
+  <si>
+    <t>gpu_imgoutcalc</t>
   </si>
 </sst>
 </file>
@@ -148,11 +163,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,12 +191,21 @@
       <sz val="12"/>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Bitstream Vera Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +275,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -267,27 +300,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9955357142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4955357142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2366071428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9955357142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2455357142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74107142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2455357142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1205357142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8660714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3705357142857"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4955357142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9910714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.8660714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8660714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.6160714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.3660714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8660714285714"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3705357142857"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2455357142857"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7410714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.58928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,9 +339,6 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -345,9 +378,6 @@
         <f aca="false">MEDIAN(E3:E7)</f>
         <v>117.010109</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J3" s="0" t="n">
         <f aca="false">F3/B3</f>
         <v>68.0519226205985</v>
@@ -376,9 +406,6 @@
       <c r="E5" s="0" t="n">
         <v>116.949059</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -395,9 +422,6 @@
       <c r="E7" s="0" t="n">
         <v>117.178017</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1"/>
@@ -405,10 +429,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,9 +456,6 @@
         <f aca="false">MEDIAN(E11:E15)</f>
         <v>87.19043</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J11" s="0" t="n">
         <f aca="false">F11/B11</f>
         <v>149.282321800351</v>
@@ -463,9 +484,6 @@
       <c r="E13" s="0" t="n">
         <v>87.22419</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -482,16 +500,13 @@
       <c r="E15" s="0" t="n">
         <v>86.421059</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,7 +518,7 @@
         <v>2.226656</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>7.448768</v>
@@ -512,9 +527,6 @@
         <f aca="false">MEDIAN(E19:E23)</f>
         <v>7.257536</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J19" s="0" t="n">
         <f aca="false">F19/B19</f>
         <v>3.25938806892488</v>
@@ -542,9 +554,6 @@
       <c r="E21" s="0" t="n">
         <v>7.156608</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -563,13 +572,10 @@
         <v>2.228224</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>7.23952</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,7 +598,7 @@
         <v>0.996512</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +636,7 @@
         <v>0.99664</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,10 +662,10 @@
         <v>1.151296</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>58.976063</v>
@@ -668,9 +674,6 @@
         <f aca="false">MEDIAN(E35:E39)</f>
         <v>58.99968</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J35" s="0" t="n">
         <f aca="false">F35/B35</f>
         <v>51.2463171938407</v>
@@ -699,9 +702,6 @@
       <c r="E37" s="0" t="n">
         <v>59.21331</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -718,9 +718,6 @@
       <c r="E39" s="0" t="n">
         <v>58.99968</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -739,10 +736,10 @@
         <v>0.75088</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>48.318401</v>
@@ -751,9 +748,6 @@
         <f aca="false">MEDIAN(E43:E47)</f>
         <v>48.385376</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J43" s="0" t="n">
         <f aca="false">F43/B43</f>
         <v>64.4382271468144</v>
@@ -782,9 +776,6 @@
       <c r="E45" s="0" t="n">
         <v>48.385376</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -801,9 +792,6 @@
       <c r="E47" s="0" t="n">
         <v>48.813087</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -822,10 +810,10 @@
         <v>0.012576</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0.002744</v>
@@ -834,9 +822,6 @@
         <f aca="false">MEDIAN(E51:E56)</f>
         <v>0.001125</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J51" s="0" t="n">
         <f aca="false">F51/B51</f>
         <v>0.089456106870229</v>
@@ -871,9 +856,6 @@
       <c r="E53" s="0" t="n">
         <v>0.001056</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -896,16 +878,13 @@
         <v>0.012704</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0.00113</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +920,10 @@
         <v>0.265904</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>9.275968</v>
@@ -953,9 +932,6 @@
         <f aca="false">MEDIAN(E60:E65)</f>
         <v>9.526176</v>
       </c>
-      <c r="G60" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J60" s="0" t="n">
         <f aca="false">F60/B60</f>
         <v>35.8256212768518</v>
@@ -990,9 +966,6 @@
       <c r="E62" s="0" t="n">
         <v>9.547616</v>
       </c>
-      <c r="G62" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -1015,16 +988,13 @@
         <v>0.2664</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>9.504736</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,6 +1346,160 @@
       <c r="D96" s="1" t="n">
         <f aca="false">1-D95</f>
         <v>0.601654606879911</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <f aca="false">B3</f>
+        <v>1.719424</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>0.584064</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">B19</f>
+        <v>2.226656</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">B27</f>
+        <v>0.996512</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <f aca="false">F3</f>
+        <v>117.010109</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <f aca="false">F11</f>
+        <v>87.19043</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <f aca="false">F19</f>
+        <v>7.257536</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">F19</f>
+        <v>7.257536</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="7" t="n">
+        <f aca="false">B103/B102</f>
+        <v>68.0519226205985</v>
+      </c>
+      <c r="C104" s="7" t="n">
+        <f aca="false">C103/C102</f>
+        <v>149.282321800351</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">D103/D102</f>
+        <v>3.25938806892488</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">E103/E102</f>
+        <v>7.28293889085129</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <f aca="false">B35</f>
+        <v>1.151296</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <f aca="false">B43</f>
+        <v>0.75088</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <f aca="false">B51</f>
+        <v>0.012576</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <f aca="false">B60</f>
+        <v>0.265904</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <f aca="false">F35</f>
+        <v>58.99968</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <f aca="false">F43</f>
+        <v>48.385376</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">F51</f>
+        <v>0.001125</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">F60</f>
+        <v>9.526176</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="7" t="n">
+        <f aca="false">B109/B108</f>
+        <v>51.2463171938407</v>
+      </c>
+      <c r="C110" s="7" t="n">
+        <f aca="false">C109/C108</f>
+        <v>64.4382271468144</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <f aca="false">D109/D108</f>
+        <v>0.089456106870229</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <f aca="false">E109/E108</f>
+        <v>35.8256212768518</v>
       </c>
     </row>
   </sheetData>
